--- a/data/pca/factorExposure/factorExposure_2017-12-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.00935044924552126</v>
+        <v>-0.01345187932037098</v>
       </c>
       <c r="C2">
-        <v>-0.001795475736860773</v>
+        <v>-0.03776938621871895</v>
       </c>
       <c r="D2">
-        <v>0.02328597321737812</v>
+        <v>0.02842110074399288</v>
       </c>
       <c r="E2">
-        <v>-0.06152540904821199</v>
+        <v>-0.02695551173991054</v>
       </c>
       <c r="F2">
-        <v>0.005584220531364774</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03249629421646542</v>
+      </c>
+      <c r="G2">
+        <v>-0.01153731332659646</v>
+      </c>
+      <c r="H2">
+        <v>0.00899226139442132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07159614303844437</v>
+        <v>-0.06703964486183946</v>
       </c>
       <c r="C3">
-        <v>-0.002214342850630413</v>
+        <v>-0.07862477811222801</v>
       </c>
       <c r="D3">
-        <v>-0.04397702093319864</v>
+        <v>0.01303383809176089</v>
       </c>
       <c r="E3">
-        <v>-0.2442686586067653</v>
+        <v>-0.07478255917649948</v>
       </c>
       <c r="F3">
-        <v>0.05964641883866341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08152404081106759</v>
+      </c>
+      <c r="G3">
+        <v>-0.06283579995429577</v>
+      </c>
+      <c r="H3">
+        <v>-0.003318903140616693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03628534610233097</v>
+        <v>-0.05775701188807034</v>
       </c>
       <c r="C4">
-        <v>0.01994432434488315</v>
+        <v>-0.06121122274151494</v>
       </c>
       <c r="D4">
-        <v>0.03276032179036456</v>
+        <v>0.02144288926841611</v>
       </c>
       <c r="E4">
-        <v>-0.03427174569974801</v>
+        <v>0.002938928014661943</v>
       </c>
       <c r="F4">
-        <v>-0.02927994210378804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01954664859033567</v>
+      </c>
+      <c r="G4">
+        <v>-0.03661377496945144</v>
+      </c>
+      <c r="H4">
+        <v>-0.03168783887099453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06226719808534511</v>
+        <v>-0.03173478268290007</v>
       </c>
       <c r="C6">
-        <v>0.0120664453937608</v>
+        <v>-0.05672529325920141</v>
       </c>
       <c r="D6">
-        <v>0.04787538162471795</v>
+        <v>0.01608715218947819</v>
       </c>
       <c r="E6">
-        <v>-0.02749717318968033</v>
+        <v>-0.003279404129700925</v>
       </c>
       <c r="F6">
-        <v>-0.04965237350889819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01746796443939328</v>
+      </c>
+      <c r="G6">
+        <v>-0.01950848426685646</v>
+      </c>
+      <c r="H6">
+        <v>-0.009003163866704387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02578869920114732</v>
+        <v>-0.01898318400467913</v>
       </c>
       <c r="C7">
-        <v>0.0694187614140067</v>
+        <v>-0.03703843488879408</v>
       </c>
       <c r="D7">
-        <v>-0.005957161838983262</v>
+        <v>0.01221912730722705</v>
       </c>
       <c r="E7">
-        <v>-0.01004706426228089</v>
+        <v>0.01643771701672279</v>
       </c>
       <c r="F7">
-        <v>0.01413578447696866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.008274392784835731</v>
+      </c>
+      <c r="G7">
+        <v>-0.07271165933787624</v>
+      </c>
+      <c r="H7">
+        <v>-0.0005115585034516812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01131723392789023</v>
+        <v>0.004872770716747666</v>
       </c>
       <c r="C8">
-        <v>0.00802126061631191</v>
+        <v>-0.012760535249102</v>
       </c>
       <c r="D8">
-        <v>0.0162869514732474</v>
+        <v>0.003650414398770149</v>
       </c>
       <c r="E8">
-        <v>-0.03335975398385247</v>
+        <v>-0.01164007242374487</v>
       </c>
       <c r="F8">
-        <v>0.0131066311321088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02224079596529879</v>
+      </c>
+      <c r="G8">
+        <v>-0.02384451281789258</v>
+      </c>
+      <c r="H8">
+        <v>-0.02242160998329901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03053086096776413</v>
+        <v>-0.02901962797669233</v>
       </c>
       <c r="C9">
-        <v>0.01346858365814449</v>
+        <v>-0.04183316997301825</v>
       </c>
       <c r="D9">
-        <v>0.02163803086529017</v>
+        <v>0.01499909067403288</v>
       </c>
       <c r="E9">
-        <v>-0.05383304276886055</v>
+        <v>0.00161185244010258</v>
       </c>
       <c r="F9">
-        <v>-0.02804108947087593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01971156374330682</v>
+      </c>
+      <c r="G9">
+        <v>-0.0281601934349065</v>
+      </c>
+      <c r="H9">
+        <v>0.002627202898757091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.07950802904746819</v>
+        <v>-0.08269529164689247</v>
       </c>
       <c r="C10">
-        <v>-0.02977483168844364</v>
+        <v>0.1841398042875364</v>
       </c>
       <c r="D10">
-        <v>-0.1623946159983916</v>
+        <v>-0.01951156497091032</v>
       </c>
       <c r="E10">
-        <v>-0.02119718747062256</v>
+        <v>-0.01711661920750394</v>
       </c>
       <c r="F10">
-        <v>0.001043957665706825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0133539894376617</v>
+      </c>
+      <c r="G10">
+        <v>-0.03523808537706068</v>
+      </c>
+      <c r="H10">
+        <v>0.02763825770530933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02744460292342785</v>
+        <v>-0.03643017003351481</v>
       </c>
       <c r="C11">
-        <v>0.001360598378262527</v>
+        <v>-0.052915587656003</v>
       </c>
       <c r="D11">
-        <v>0.04325921626259904</v>
+        <v>0.0006649584699259324</v>
       </c>
       <c r="E11">
-        <v>-0.01614850871876471</v>
+        <v>0.007032055424212709</v>
       </c>
       <c r="F11">
-        <v>-0.02408153649463397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02685050565151835</v>
+      </c>
+      <c r="G11">
+        <v>-0.007366826734351694</v>
+      </c>
+      <c r="H11">
+        <v>-0.000495914769332598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0349893890329214</v>
+        <v>-0.03583539128242315</v>
       </c>
       <c r="C12">
-        <v>0.009008034154366436</v>
+        <v>-0.04576197615956947</v>
       </c>
       <c r="D12">
-        <v>0.04133066065615729</v>
+        <v>0.005044751956920835</v>
       </c>
       <c r="E12">
-        <v>0.008534604144777008</v>
+        <v>0.01197459371274762</v>
       </c>
       <c r="F12">
-        <v>-0.003289022118366658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.006785205030681896</v>
+      </c>
+      <c r="G12">
+        <v>-0.01265965274546158</v>
+      </c>
+      <c r="H12">
+        <v>0.002890206579574187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02087901538838561</v>
+        <v>-0.01221579504540104</v>
       </c>
       <c r="C13">
-        <v>-0.0008260910881268072</v>
+        <v>-0.03105715365642244</v>
       </c>
       <c r="D13">
-        <v>0.01510276656904739</v>
+        <v>0.02420167140284297</v>
       </c>
       <c r="E13">
-        <v>-0.04268548909924356</v>
+        <v>-0.01739063913908349</v>
       </c>
       <c r="F13">
-        <v>-0.015795178807426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0316711469455987</v>
+      </c>
+      <c r="G13">
+        <v>-0.02254246511583882</v>
+      </c>
+      <c r="H13">
+        <v>-0.01345378977917963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01515039748193972</v>
+        <v>-0.008550641561970981</v>
       </c>
       <c r="C14">
-        <v>0.0148759713224715</v>
+        <v>-0.02429182407173737</v>
       </c>
       <c r="D14">
-        <v>0.006322798302950327</v>
+        <v>0.008084634667038314</v>
       </c>
       <c r="E14">
-        <v>-0.01935764312073414</v>
+        <v>0.005829080256785746</v>
       </c>
       <c r="F14">
-        <v>0.02156664041091385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.001096287605190729</v>
+      </c>
+      <c r="G14">
+        <v>-0.03113407138742398</v>
+      </c>
+      <c r="H14">
+        <v>-0.01792829941937047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02605307720200355</v>
+        <v>-0.03245050972651011</v>
       </c>
       <c r="C16">
-        <v>0.006984027749504853</v>
+        <v>-0.04224658648306937</v>
       </c>
       <c r="D16">
-        <v>0.04000179786408965</v>
+        <v>0.0004045666273509203</v>
       </c>
       <c r="E16">
-        <v>-0.01654217000554626</v>
+        <v>0.004525997624763062</v>
       </c>
       <c r="F16">
-        <v>-0.02874325131751237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01463199940126136</v>
+      </c>
+      <c r="G16">
+        <v>-0.01255290994713418</v>
+      </c>
+      <c r="H16">
+        <v>-0.002798870906144021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02596833472895749</v>
+        <v>-0.0285019232922087</v>
       </c>
       <c r="C19">
-        <v>0.004556162171762437</v>
+        <v>-0.05336622534211045</v>
       </c>
       <c r="D19">
-        <v>0.03430544411878238</v>
+        <v>0.01462273970802812</v>
       </c>
       <c r="E19">
-        <v>-0.05135570593379546</v>
+        <v>-0.03167729271962424</v>
       </c>
       <c r="F19">
-        <v>-0.03587886932951054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0434550536839927</v>
+      </c>
+      <c r="G19">
+        <v>-0.03279131592621522</v>
+      </c>
+      <c r="H19">
+        <v>-0.03727120161350887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00488205633318466</v>
+        <v>-0.01064293162453621</v>
       </c>
       <c r="C20">
-        <v>0.002244270090890292</v>
+        <v>-0.03427855661705042</v>
       </c>
       <c r="D20">
-        <v>-0.001690252423296132</v>
+        <v>0.01274268758264657</v>
       </c>
       <c r="E20">
-        <v>-0.03028166321622353</v>
+        <v>-0.01707205699933751</v>
       </c>
       <c r="F20">
-        <v>0.007022568694997872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01094960361270129</v>
+      </c>
+      <c r="G20">
+        <v>-0.02251952796201317</v>
+      </c>
+      <c r="H20">
+        <v>-0.01297131912897806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03680948524349133</v>
+        <v>-0.01195503742234031</v>
       </c>
       <c r="C21">
-        <v>0.0248142252836712</v>
+        <v>-0.03350842841166066</v>
       </c>
       <c r="D21">
-        <v>0.01449409163952116</v>
+        <v>0.01558693217322496</v>
       </c>
       <c r="E21">
-        <v>-0.02536888018256389</v>
+        <v>-0.0222990294153064</v>
       </c>
       <c r="F21">
-        <v>-0.01884101877601479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02180561911575192</v>
+      </c>
+      <c r="G21">
+        <v>-0.04580247385867392</v>
+      </c>
+      <c r="H21">
+        <v>-0.01714182027236803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02523525208067261</v>
+        <v>-0.02668554276922126</v>
       </c>
       <c r="C24">
-        <v>0.004457886508421906</v>
+        <v>-0.04621764957769749</v>
       </c>
       <c r="D24">
-        <v>0.03425749477992671</v>
+        <v>0.005686270142709024</v>
       </c>
       <c r="E24">
-        <v>-0.01511279141137972</v>
+        <v>0.009847131168921686</v>
       </c>
       <c r="F24">
-        <v>-0.02412315494988245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02249690070155357</v>
+      </c>
+      <c r="G24">
+        <v>-0.01098611289903699</v>
+      </c>
+      <c r="H24">
+        <v>0.002892552947103337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03909192327658805</v>
+        <v>-0.04434709608687651</v>
       </c>
       <c r="C25">
-        <v>0.002686976734543759</v>
+        <v>-0.05149507459410676</v>
       </c>
       <c r="D25">
-        <v>0.03523260677690382</v>
+        <v>0.009428700876095661</v>
       </c>
       <c r="E25">
-        <v>-0.02846188209625134</v>
+        <v>0.01662089728131538</v>
       </c>
       <c r="F25">
-        <v>-0.02971529999826334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01793277106307558</v>
+      </c>
+      <c r="G25">
+        <v>-0.01568880795533582</v>
+      </c>
+      <c r="H25">
+        <v>-0.006164983005980153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00306004612729674</v>
+        <v>-0.002744854929617927</v>
       </c>
       <c r="C26">
-        <v>0.008352589290985847</v>
+        <v>-0.008891041783829511</v>
       </c>
       <c r="D26">
-        <v>-0.003452801314776161</v>
+        <v>0.02385539542462242</v>
       </c>
       <c r="E26">
-        <v>-0.03130246443036776</v>
+        <v>-0.003016913105148348</v>
       </c>
       <c r="F26">
-        <v>0.02006899183901841</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007618125250310762</v>
+      </c>
+      <c r="G26">
+        <v>-0.02149811486729243</v>
+      </c>
+      <c r="H26">
+        <v>-0.009173663780214558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1207298115291927</v>
+        <v>-0.1075012509872365</v>
       </c>
       <c r="C28">
-        <v>-0.04208336528190462</v>
+        <v>0.2252492910892868</v>
       </c>
       <c r="D28">
-        <v>-0.2337656704708224</v>
+        <v>-0.01107684369905977</v>
       </c>
       <c r="E28">
-        <v>-0.008433701784395611</v>
+        <v>-0.008949652394434288</v>
       </c>
       <c r="F28">
-        <v>0.009118837002560158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01216898856769049</v>
+      </c>
+      <c r="G28">
+        <v>-0.05018043448021043</v>
+      </c>
+      <c r="H28">
+        <v>0.01170763839839823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01501461886353363</v>
+        <v>-0.01265068021874765</v>
       </c>
       <c r="C29">
-        <v>0.0112535979727319</v>
+        <v>-0.01854875677922401</v>
       </c>
       <c r="D29">
-        <v>0.008210531190260667</v>
+        <v>0.00689054792210525</v>
       </c>
       <c r="E29">
-        <v>-0.0190769184119535</v>
+        <v>0.003577438403110996</v>
       </c>
       <c r="F29">
-        <v>0.02098662100282133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.005627548329257769</v>
+      </c>
+      <c r="G29">
+        <v>-0.02417538361190943</v>
+      </c>
+      <c r="H29">
+        <v>-0.02326044001981165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04900040898844351</v>
+        <v>-0.03926523365621832</v>
       </c>
       <c r="C30">
-        <v>-0.04470549823365619</v>
+        <v>-0.07317661878994239</v>
       </c>
       <c r="D30">
-        <v>0.07128107924895227</v>
+        <v>0.02677874620641412</v>
       </c>
       <c r="E30">
-        <v>-0.06590596419687371</v>
+        <v>-0.01613478479022011</v>
       </c>
       <c r="F30">
-        <v>-0.007864457474121496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04679099433224925</v>
+      </c>
+      <c r="G30">
+        <v>0.01318362963762326</v>
+      </c>
+      <c r="H30">
+        <v>-0.01242796178154071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04758682246679775</v>
+        <v>-0.04210124042362222</v>
       </c>
       <c r="C31">
-        <v>0.01551511124749421</v>
+        <v>-0.02753121866035204</v>
       </c>
       <c r="D31">
-        <v>0.01687892962271269</v>
+        <v>0.002479532679444919</v>
       </c>
       <c r="E31">
-        <v>0.001923834335083999</v>
+        <v>0.01724756698372465</v>
       </c>
       <c r="F31">
-        <v>0.01515962333040158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02816138099674708</v>
+      </c>
+      <c r="G31">
+        <v>-0.02450860033358376</v>
+      </c>
+      <c r="H31">
+        <v>-0.004164798720668816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001105469847579172</v>
+        <v>-0.008012030172815796</v>
       </c>
       <c r="C32">
-        <v>0.03079875194780689</v>
+        <v>-0.03578569571562352</v>
       </c>
       <c r="D32">
-        <v>0.02159757874839701</v>
+        <v>-0.005380293113044539</v>
       </c>
       <c r="E32">
-        <v>-0.01609866631046783</v>
+        <v>-0.01290823392578993</v>
       </c>
       <c r="F32">
-        <v>-0.008410058592103321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07498891596233635</v>
+      </c>
+      <c r="G32">
+        <v>-0.04923293187430819</v>
+      </c>
+      <c r="H32">
+        <v>-0.06937478804554267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0333711941812033</v>
+        <v>-0.02994047500321047</v>
       </c>
       <c r="C33">
-        <v>-0.01638382512940645</v>
+        <v>-0.05028813535395923</v>
       </c>
       <c r="D33">
-        <v>0.03530695841330515</v>
+        <v>0.01342852912790508</v>
       </c>
       <c r="E33">
-        <v>-0.04281851468532959</v>
+        <v>-0.0140223324737423</v>
       </c>
       <c r="F33">
-        <v>0.01735566734242809</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02506614903185841</v>
+      </c>
+      <c r="G33">
+        <v>-0.01419256377986838</v>
+      </c>
+      <c r="H33">
+        <v>0.01323281394594296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02800868681679859</v>
+        <v>-0.04696952180611346</v>
       </c>
       <c r="C34">
-        <v>0.01552240996085584</v>
+        <v>-0.05242215577525555</v>
       </c>
       <c r="D34">
-        <v>0.04050843101225817</v>
+        <v>-0.006781860301612405</v>
       </c>
       <c r="E34">
-        <v>-0.01476484595575673</v>
+        <v>0.01675449961780289</v>
       </c>
       <c r="F34">
-        <v>-0.02566612506071252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02304512728852649</v>
+      </c>
+      <c r="G34">
+        <v>-0.02080558547250191</v>
+      </c>
+      <c r="H34">
+        <v>-0.0006252645452862539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0170641293758183</v>
+        <v>-0.009929477290400449</v>
       </c>
       <c r="C36">
-        <v>0.004058227197436095</v>
+        <v>-0.004735558035959415</v>
       </c>
       <c r="D36">
-        <v>-0.001044286835594108</v>
+        <v>0.01092244049517001</v>
       </c>
       <c r="E36">
-        <v>-0.01737225617229554</v>
+        <v>0.001164222839929078</v>
       </c>
       <c r="F36">
-        <v>0.00128594018773748</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0008082531022510794</v>
+      </c>
+      <c r="G36">
+        <v>-0.01426253129215811</v>
+      </c>
+      <c r="H36">
+        <v>0.0007162439256468816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02173512058891314</v>
+        <v>-0.03127025781527885</v>
       </c>
       <c r="C38">
-        <v>0.000859967105695575</v>
+        <v>-0.02169040347957219</v>
       </c>
       <c r="D38">
-        <v>0.01184441653071182</v>
+        <v>-0.008652925498114696</v>
       </c>
       <c r="E38">
-        <v>-0.04078492925646741</v>
+        <v>0.005189349673797901</v>
       </c>
       <c r="F38">
-        <v>-0.002101644253014504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009235159987832618</v>
+      </c>
+      <c r="G38">
+        <v>-0.02211868227834279</v>
+      </c>
+      <c r="H38">
+        <v>-0.009179990838731559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02050723696699222</v>
+        <v>-0.03148996241659924</v>
       </c>
       <c r="C39">
-        <v>0.01387612192486533</v>
+        <v>-0.08308341788682654</v>
       </c>
       <c r="D39">
-        <v>0.06337997599357467</v>
+        <v>0.01121426461728021</v>
       </c>
       <c r="E39">
-        <v>-0.04705192134102645</v>
+        <v>-0.005757389188612673</v>
       </c>
       <c r="F39">
-        <v>-0.03741753204623741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04243116065649224</v>
+      </c>
+      <c r="G39">
+        <v>-0.01263946922378649</v>
+      </c>
+      <c r="H39">
+        <v>0.01114732302787233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02801242412442828</v>
+        <v>-0.02001158662405856</v>
       </c>
       <c r="C40">
-        <v>0.002046549209040848</v>
+        <v>-0.031464105607151</v>
       </c>
       <c r="D40">
-        <v>0.03952516193473054</v>
+        <v>0.01253206562981648</v>
       </c>
       <c r="E40">
-        <v>-0.03575185536015021</v>
+        <v>-0.01044774114628312</v>
       </c>
       <c r="F40">
-        <v>-0.03949969404673753</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02564131177787547</v>
+      </c>
+      <c r="G40">
+        <v>-0.01347178753479639</v>
+      </c>
+      <c r="H40">
+        <v>-0.00302341077607281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01182219634461264</v>
+        <v>-0.0106255745131262</v>
       </c>
       <c r="C41">
-        <v>-0.001767271606058743</v>
+        <v>0.003319011059759207</v>
       </c>
       <c r="D41">
-        <v>-0.01196550376134986</v>
+        <v>0.002995359544251582</v>
       </c>
       <c r="E41">
-        <v>-0.004752570593288246</v>
+        <v>0.008889064346202912</v>
       </c>
       <c r="F41">
-        <v>0.004614418119053037</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0002075614222186328</v>
+      </c>
+      <c r="G41">
+        <v>-0.009436090652966599</v>
+      </c>
+      <c r="H41">
+        <v>-0.004037647582382016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1462817725439971</v>
+        <v>-0.04078722827929054</v>
       </c>
       <c r="C42">
-        <v>-0.08621344914289905</v>
+        <v>-0.05913015880699649</v>
       </c>
       <c r="D42">
-        <v>0.1447942172275284</v>
+        <v>0.1044363688029838</v>
       </c>
       <c r="E42">
-        <v>-0.1945481155006785</v>
+        <v>-0.08147207381335525</v>
       </c>
       <c r="F42">
-        <v>0.09715989266994102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1304911040855005</v>
+      </c>
+      <c r="G42">
+        <v>0.2226328121288013</v>
+      </c>
+      <c r="H42">
+        <v>0.9271220554306663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01807432692932533</v>
+        <v>-0.02677054863925974</v>
       </c>
       <c r="C43">
-        <v>-0.003686780951135874</v>
+        <v>-0.005745492469148749</v>
       </c>
       <c r="D43">
-        <v>-0.00839776790037133</v>
+        <v>0.00288168345262447</v>
       </c>
       <c r="E43">
-        <v>-0.008335260609662847</v>
+        <v>0.005972407311032301</v>
       </c>
       <c r="F43">
-        <v>0.009942442578230629</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.002453981973817064</v>
+      </c>
+      <c r="G43">
+        <v>-0.01127317380308877</v>
+      </c>
+      <c r="H43">
+        <v>-0.003068746578698252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01029489498235743</v>
+        <v>-0.01692634148628851</v>
       </c>
       <c r="C44">
-        <v>0.01049306804800265</v>
+        <v>-0.04844830192133646</v>
       </c>
       <c r="D44">
-        <v>0.01462557170538331</v>
+        <v>0.006467424652270451</v>
       </c>
       <c r="E44">
-        <v>-0.07201360822732929</v>
+        <v>-0.01654349309060589</v>
       </c>
       <c r="F44">
-        <v>-0.003485164440571851</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0264064013492202</v>
+      </c>
+      <c r="G44">
+        <v>-0.02930955589314761</v>
+      </c>
+      <c r="H44">
+        <v>0.01249310119298903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.009888924394880866</v>
+        <v>-0.001332156387434433</v>
       </c>
       <c r="C46">
-        <v>0.004865628465942151</v>
+        <v>-0.01575258430961586</v>
       </c>
       <c r="D46">
-        <v>0.02415724601128738</v>
+        <v>0.01128784320531254</v>
       </c>
       <c r="E46">
-        <v>-0.03786336204354863</v>
+        <v>0.006086555056839804</v>
       </c>
       <c r="F46">
-        <v>0.02376733964714999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.008752591108931874</v>
+      </c>
+      <c r="G46">
+        <v>-0.01660802351143911</v>
+      </c>
+      <c r="H46">
+        <v>-0.02544272103675299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07174971546670449</v>
+        <v>-0.0724474035790115</v>
       </c>
       <c r="C47">
-        <v>0.003300572181320084</v>
+        <v>-0.05966263519983717</v>
       </c>
       <c r="D47">
-        <v>0.03020024199868442</v>
+        <v>-0.005605548499056031</v>
       </c>
       <c r="E47">
-        <v>0.03625810452121281</v>
+        <v>0.02071807892954214</v>
       </c>
       <c r="F47">
-        <v>0.03982312253231538</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05991534839611652</v>
+      </c>
+      <c r="G47">
+        <v>-0.01462245878381155</v>
+      </c>
+      <c r="H47">
+        <v>-0.006634672836428576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02720205041704239</v>
+        <v>-0.01516932426388513</v>
       </c>
       <c r="C48">
-        <v>0.004415604763939845</v>
+        <v>-0.009999730141316112</v>
       </c>
       <c r="D48">
-        <v>0.003867585348414141</v>
+        <v>0.000706924080881231</v>
       </c>
       <c r="E48">
-        <v>-0.01791012444739566</v>
+        <v>0.007155389931721481</v>
       </c>
       <c r="F48">
-        <v>-0.001346920627962203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01378014456936732</v>
+      </c>
+      <c r="G48">
+        <v>-0.01641520628470427</v>
+      </c>
+      <c r="H48">
+        <v>-0.003304443617250161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07228107471332354</v>
+        <v>-0.07599424373147211</v>
       </c>
       <c r="C50">
-        <v>0.03381886532365699</v>
+        <v>-0.06077771649302295</v>
       </c>
       <c r="D50">
-        <v>0.04240863226776541</v>
+        <v>-0.004456959543374872</v>
       </c>
       <c r="E50">
-        <v>0.007384622508079563</v>
+        <v>0.02062103111843176</v>
       </c>
       <c r="F50">
-        <v>0.06479695716409117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05723981902611274</v>
+      </c>
+      <c r="G50">
+        <v>-0.03887192204991138</v>
+      </c>
+      <c r="H50">
+        <v>-0.008720757584663907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01570767398243156</v>
+        <v>-0.01787355639353463</v>
       </c>
       <c r="C51">
-        <v>0.005702228432707751</v>
+        <v>-0.02848054214662019</v>
       </c>
       <c r="D51">
-        <v>-0.01720524372256315</v>
+        <v>0.008426713938481847</v>
       </c>
       <c r="E51">
-        <v>-0.0578613722242268</v>
+        <v>-0.007384970776604335</v>
       </c>
       <c r="F51">
-        <v>-0.006952188253566936</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03588263958888941</v>
+      </c>
+      <c r="G51">
+        <v>-0.03631962895423698</v>
+      </c>
+      <c r="H51">
+        <v>-0.007553357882604945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09392876556575779</v>
+        <v>-0.0986053738613151</v>
       </c>
       <c r="C53">
-        <v>0.02185102261287542</v>
+        <v>-0.07381973401132873</v>
       </c>
       <c r="D53">
-        <v>0.0603830543601905</v>
+        <v>-0.006785436858583294</v>
       </c>
       <c r="E53">
-        <v>0.05883219826524993</v>
+        <v>0.04099839982414581</v>
       </c>
       <c r="F53">
-        <v>0.02734329865601618</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06861992804607364</v>
+      </c>
+      <c r="G53">
+        <v>-0.01592811154110881</v>
+      </c>
+      <c r="H53">
+        <v>0.002033151820312606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0278344646609295</v>
+        <v>-0.02819935920985443</v>
       </c>
       <c r="C54">
-        <v>0.008558495043027164</v>
+        <v>-0.002864600287299873</v>
       </c>
       <c r="D54">
-        <v>-0.001385701930684003</v>
+        <v>-0.004793784845151298</v>
       </c>
       <c r="E54">
-        <v>-0.002975015110557619</v>
+        <v>4.437377323979885e-05</v>
       </c>
       <c r="F54">
-        <v>0.007119540516044917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.004833129966389052</v>
+      </c>
+      <c r="G54">
+        <v>-0.02450007819992595</v>
+      </c>
+      <c r="H54">
+        <v>-0.0209607959579933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06728013443734303</v>
+        <v>-0.07352859298770367</v>
       </c>
       <c r="C55">
-        <v>0.0149058025207878</v>
+        <v>-0.06735614118390708</v>
       </c>
       <c r="D55">
-        <v>0.07379963939341824</v>
+        <v>-0.005590407600957345</v>
       </c>
       <c r="E55">
-        <v>0.03721394660124496</v>
+        <v>0.03015397133395388</v>
       </c>
       <c r="F55">
-        <v>0.04929703813484099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06289447407006188</v>
+      </c>
+      <c r="G55">
+        <v>-0.005032513171911038</v>
+      </c>
+      <c r="H55">
+        <v>-0.004225129243349476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1324050623539202</v>
+        <v>-0.1483813217311936</v>
       </c>
       <c r="C56">
-        <v>0.01866636408354679</v>
+        <v>-0.09523492065619216</v>
       </c>
       <c r="D56">
-        <v>0.08987221258436157</v>
+        <v>-0.01586786577682601</v>
       </c>
       <c r="E56">
-        <v>0.09049863536936271</v>
+        <v>0.04344441749271472</v>
       </c>
       <c r="F56">
-        <v>0.02157157806562684</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1064520494128836</v>
+      </c>
+      <c r="G56">
+        <v>0.006598899835062367</v>
+      </c>
+      <c r="H56">
+        <v>0.00249258220233213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04042533943470689</v>
+        <v>-0.01599765997113188</v>
       </c>
       <c r="C57">
-        <v>-0.004674514024131237</v>
+        <v>-0.01101004748954261</v>
       </c>
       <c r="D57">
-        <v>0.0220697676307387</v>
+        <v>0.02352270033116019</v>
       </c>
       <c r="E57">
-        <v>-0.04191104948426373</v>
+        <v>-0.0314719024108867</v>
       </c>
       <c r="F57">
-        <v>-0.01461097262049673</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01684203852925454</v>
+      </c>
+      <c r="G57">
+        <v>-0.02211181920601656</v>
+      </c>
+      <c r="H57">
+        <v>0.003998961256732559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1791027229381473</v>
+        <v>-0.07306681434253563</v>
       </c>
       <c r="C58">
-        <v>-0.1197469312969661</v>
+        <v>-0.07988655046774654</v>
       </c>
       <c r="D58">
-        <v>0.1564172086147623</v>
+        <v>0.02044030374921969</v>
       </c>
       <c r="E58">
-        <v>-0.591768663304949</v>
+        <v>-0.9472105950600529</v>
       </c>
       <c r="F58">
-        <v>0.5768193428137921</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2140505785312225</v>
+      </c>
+      <c r="G58">
+        <v>-0.06590648062421497</v>
+      </c>
+      <c r="H58">
+        <v>-0.1003859403976517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1253277251766688</v>
+        <v>-0.1479226294871382</v>
       </c>
       <c r="C59">
-        <v>-0.0614704821350033</v>
+        <v>0.217674882632211</v>
       </c>
       <c r="D59">
-        <v>-0.2006942377938348</v>
+        <v>-0.01869106395925002</v>
       </c>
       <c r="E59">
-        <v>-0.04120902397454079</v>
+        <v>-0.01509497165742314</v>
       </c>
       <c r="F59">
-        <v>-0.05471552039580217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01208563505657027</v>
+      </c>
+      <c r="G59">
+        <v>-0.02031453003583619</v>
+      </c>
+      <c r="H59">
+        <v>-0.002014702865777752</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2122219366736298</v>
+        <v>-0.2950792627546958</v>
       </c>
       <c r="C60">
-        <v>-0.04110503694149304</v>
+        <v>-0.07669624207989266</v>
       </c>
       <c r="D60">
-        <v>0.01574138118356723</v>
+        <v>0.004221492987526447</v>
       </c>
       <c r="E60">
-        <v>-0.1612061619264819</v>
+        <v>-0.01631136906805815</v>
       </c>
       <c r="F60">
-        <v>-0.3954517643937928</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3898783354019716</v>
+      </c>
+      <c r="G60">
+        <v>0.04411421658997668</v>
+      </c>
+      <c r="H60">
+        <v>-0.0533522424513875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03307126156515636</v>
+        <v>-0.03207184556678281</v>
       </c>
       <c r="C61">
-        <v>0.007915460355378294</v>
+        <v>-0.06355895685043218</v>
       </c>
       <c r="D61">
-        <v>0.05362665759454628</v>
+        <v>0.004586704735224999</v>
       </c>
       <c r="E61">
-        <v>-0.03019785789278078</v>
+        <v>-0.0005556909847506882</v>
       </c>
       <c r="F61">
-        <v>-0.05194456470022518</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02798950986236492</v>
+      </c>
+      <c r="G61">
+        <v>-0.01476971770549925</v>
+      </c>
+      <c r="H61">
+        <v>-0.002310257706900613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01751421441885587</v>
+        <v>-0.01356399745773743</v>
       </c>
       <c r="C63">
-        <v>0.008465668499201892</v>
+        <v>-0.02834567326654731</v>
       </c>
       <c r="D63">
-        <v>0.02099123441557675</v>
+        <v>0.007443176502385803</v>
       </c>
       <c r="E63">
-        <v>-0.004190194503067886</v>
+        <v>0.01612998292197288</v>
       </c>
       <c r="F63">
-        <v>0.02420893253397535</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.005363070111018144</v>
+      </c>
+      <c r="G63">
+        <v>-0.01984800442762573</v>
+      </c>
+      <c r="H63">
+        <v>-0.00679092585539475</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05016476022329822</v>
+        <v>-0.04720716041436948</v>
       </c>
       <c r="C64">
-        <v>0.005786957432327353</v>
+        <v>-0.03485307575968084</v>
       </c>
       <c r="D64">
-        <v>0.03685217733905862</v>
+        <v>0.003883145699776229</v>
       </c>
       <c r="E64">
-        <v>-0.01442437996840633</v>
+        <v>0.01705230593453433</v>
       </c>
       <c r="F64">
-        <v>-0.01637826497351299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01464740814009977</v>
+      </c>
+      <c r="G64">
+        <v>-0.0111896801798673</v>
+      </c>
+      <c r="H64">
+        <v>0.03058236191839842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06952137352400781</v>
+        <v>-0.07784807758508305</v>
       </c>
       <c r="C65">
-        <v>0.01251575603532004</v>
+        <v>-0.06732444869047154</v>
       </c>
       <c r="D65">
-        <v>0.05136264553645533</v>
+        <v>0.01463707719234939</v>
       </c>
       <c r="E65">
-        <v>-0.02372081658461583</v>
+        <v>0.002177854733678692</v>
       </c>
       <c r="F65">
-        <v>-0.05671849171376476</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04173624558586607</v>
+      </c>
+      <c r="G65">
+        <v>-0.007837717582423152</v>
+      </c>
+      <c r="H65">
+        <v>-0.01493742836201149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04388321640324271</v>
+        <v>-0.05333420469874062</v>
       </c>
       <c r="C66">
-        <v>-0.002586096731277802</v>
+        <v>-0.1174040041496779</v>
       </c>
       <c r="D66">
-        <v>0.08220810355382566</v>
+        <v>0.01029172591403589</v>
       </c>
       <c r="E66">
-        <v>-0.02705996365771675</v>
+        <v>-0.005993519260216547</v>
       </c>
       <c r="F66">
-        <v>-0.04858671298534976</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04994210671411476</v>
+      </c>
+      <c r="G66">
+        <v>-0.001494999108312677</v>
+      </c>
+      <c r="H66">
+        <v>-0.01053298796254313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03885292958815349</v>
+        <v>-0.05772569867768616</v>
       </c>
       <c r="C67">
-        <v>-0.001904738055275879</v>
+        <v>-0.02316126045633526</v>
       </c>
       <c r="D67">
-        <v>0.01159913802758386</v>
+        <v>-0.007819599807999919</v>
       </c>
       <c r="E67">
-        <v>-0.02000171217663586</v>
+        <v>0.01089246231791738</v>
       </c>
       <c r="F67">
-        <v>-0.01089490064397024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.006903485448116829</v>
+      </c>
+      <c r="G67">
+        <v>-0.02148042682783675</v>
+      </c>
+      <c r="H67">
+        <v>-0.01400174905293968</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.107465436556972</v>
+        <v>-0.1170490694270813</v>
       </c>
       <c r="C68">
-        <v>-0.05881064438528306</v>
+        <v>0.2689986353859044</v>
       </c>
       <c r="D68">
-        <v>-0.217223385532839</v>
+        <v>0.0002603696731404061</v>
       </c>
       <c r="E68">
-        <v>-0.005135729898603953</v>
+        <v>-0.01547527581040203</v>
       </c>
       <c r="F68">
-        <v>-0.005292214466603872</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01883208106086041</v>
+      </c>
+      <c r="G68">
+        <v>-0.01910112084193627</v>
+      </c>
+      <c r="H68">
+        <v>0.01640094486530006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05232315532650596</v>
+        <v>-0.07517747164094851</v>
       </c>
       <c r="C69">
-        <v>0.005205810302475669</v>
+        <v>-0.05651430866202967</v>
       </c>
       <c r="D69">
-        <v>0.03836054902620145</v>
+        <v>-0.01044315463080651</v>
       </c>
       <c r="E69">
-        <v>0.02574231210925855</v>
+        <v>0.03623050652682252</v>
       </c>
       <c r="F69">
-        <v>0.01258172866820789</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03549029817152409</v>
+      </c>
+      <c r="G69">
+        <v>-0.01082114525236417</v>
+      </c>
+      <c r="H69">
+        <v>-0.0210555699730428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09895648750063896</v>
+        <v>-0.1198052924927452</v>
       </c>
       <c r="C71">
-        <v>-0.04494383961280048</v>
+        <v>0.2267110320322202</v>
       </c>
       <c r="D71">
-        <v>-0.2145906996075301</v>
+        <v>-0.008847801029838486</v>
       </c>
       <c r="E71">
-        <v>-0.02099728491463554</v>
+        <v>-0.02088120313215604</v>
       </c>
       <c r="F71">
-        <v>0.03772405419961971</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02340004887114773</v>
+      </c>
+      <c r="G71">
+        <v>-0.03267646216039052</v>
+      </c>
+      <c r="H71">
+        <v>0.02779747875260576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1268735002999294</v>
+        <v>-0.08271477339488947</v>
       </c>
       <c r="C72">
-        <v>0.002017469212171022</v>
+        <v>-0.08093826938106646</v>
       </c>
       <c r="D72">
-        <v>0.1257124500887438</v>
+        <v>-0.00975868554548681</v>
       </c>
       <c r="E72">
-        <v>-0.1161888191549039</v>
+        <v>0.02076397666255032</v>
       </c>
       <c r="F72">
-        <v>-0.1766822426320338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03680174693469922</v>
+      </c>
+      <c r="G72">
+        <v>0.006752990693647986</v>
+      </c>
+      <c r="H72">
+        <v>-0.008210496429991766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2637853609466027</v>
+        <v>-0.3982518662959829</v>
       </c>
       <c r="C73">
-        <v>-0.09932412394450996</v>
+        <v>-0.09172503094257384</v>
       </c>
       <c r="D73">
-        <v>0.05316037835028962</v>
+        <v>0.008480577096654807</v>
       </c>
       <c r="E73">
-        <v>-0.2378264619923585</v>
+        <v>-0.06820975437042638</v>
       </c>
       <c r="F73">
-        <v>-0.4014485236843174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5342908322526202</v>
+      </c>
+      <c r="G73">
+        <v>0.08974492979455859</v>
+      </c>
+      <c r="H73">
+        <v>0.06523474435213091</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1212093342708633</v>
+        <v>-0.1177230134312615</v>
       </c>
       <c r="C74">
-        <v>0.009449472754647437</v>
+        <v>-0.1142164841274044</v>
       </c>
       <c r="D74">
-        <v>0.09116157355031666</v>
+        <v>-0.01115812044593003</v>
       </c>
       <c r="E74">
-        <v>0.07692048213184799</v>
+        <v>0.04118827549355756</v>
       </c>
       <c r="F74">
-        <v>0.009046487705967042</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07342873765310758</v>
+      </c>
+      <c r="G74">
+        <v>-0.007396171017315653</v>
+      </c>
+      <c r="H74">
+        <v>0.001261198542898107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2515016562013562</v>
+        <v>-0.2608997496012288</v>
       </c>
       <c r="C75">
-        <v>0.00743458762037636</v>
+        <v>-0.1382024479665096</v>
       </c>
       <c r="D75">
-        <v>0.1468900753321652</v>
+        <v>-0.03241606575629811</v>
       </c>
       <c r="E75">
-        <v>0.1619101719750219</v>
+        <v>0.05890805476796948</v>
       </c>
       <c r="F75">
-        <v>0.02409332133045885</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2183805652914383</v>
+      </c>
+      <c r="G75">
+        <v>0.03318701214497481</v>
+      </c>
+      <c r="H75">
+        <v>-0.001111494112226573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.234137532220472</v>
+        <v>-0.1489672166178734</v>
       </c>
       <c r="C76">
-        <v>0.02978520054666521</v>
+        <v>-0.1182093850291408</v>
       </c>
       <c r="D76">
-        <v>0.1455501339321648</v>
+        <v>-0.02440193806757809</v>
       </c>
       <c r="E76">
-        <v>0.2255946592791361</v>
+        <v>0.06883634227897883</v>
       </c>
       <c r="F76">
-        <v>0.04602792806439626</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1476628199215844</v>
+      </c>
+      <c r="G76">
+        <v>0.002590310645820931</v>
+      </c>
+      <c r="H76">
+        <v>-0.008988327293819992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0529469678415707</v>
+        <v>-0.05952422778925091</v>
       </c>
       <c r="C77">
-        <v>-0.0007827594345815279</v>
+        <v>-0.0610297662297304</v>
       </c>
       <c r="D77">
-        <v>0.04675481588072625</v>
+        <v>0.01106396731385688</v>
       </c>
       <c r="E77">
-        <v>-0.06325173374204146</v>
+        <v>-0.03016872393296363</v>
       </c>
       <c r="F77">
-        <v>0.1096173475727786</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.007940256599548166</v>
+      </c>
+      <c r="G77">
+        <v>-0.02960022211564087</v>
+      </c>
+      <c r="H77">
+        <v>0.003063078588503785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03317823651649229</v>
+        <v>-0.0444022756751552</v>
       </c>
       <c r="C78">
-        <v>0.01005944730824756</v>
+        <v>-0.05343750138591175</v>
       </c>
       <c r="D78">
-        <v>0.0425817189092387</v>
+        <v>0.004698063551528854</v>
       </c>
       <c r="E78">
-        <v>-0.0635477857416805</v>
+        <v>-0.01558654112490643</v>
       </c>
       <c r="F78">
-        <v>-0.03261053535736468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04656975974887278</v>
+      </c>
+      <c r="G78">
+        <v>-0.02454583076276298</v>
+      </c>
+      <c r="H78">
+        <v>-0.0134928288743778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1901279274759873</v>
+        <v>-0.06841432449288652</v>
       </c>
       <c r="C80">
-        <v>0.9369700753970072</v>
+        <v>-0.0828273370481122</v>
       </c>
       <c r="D80">
-        <v>-0.1877913896146581</v>
+        <v>0.01280693894846905</v>
       </c>
       <c r="E80">
-        <v>-0.1292177897408601</v>
+        <v>0.07322479888680364</v>
       </c>
       <c r="F80">
-        <v>0.02199654243836069</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01965636205791941</v>
+      </c>
+      <c r="G80">
+        <v>-0.9272182533324472</v>
+      </c>
+      <c r="H80">
+        <v>0.216909774967861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1922075088739376</v>
+        <v>-0.151532507289749</v>
       </c>
       <c r="C81">
-        <v>0.01647690625308962</v>
+        <v>-0.08759967912433345</v>
       </c>
       <c r="D81">
-        <v>0.1073497319759699</v>
+        <v>-0.01849461144993588</v>
       </c>
       <c r="E81">
-        <v>0.1251742612765653</v>
+        <v>0.04376720160587069</v>
       </c>
       <c r="F81">
-        <v>0.06382007935657447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.141563760223548</v>
+      </c>
+      <c r="G81">
+        <v>-0.004548965026142134</v>
+      </c>
+      <c r="H81">
+        <v>-0.007558388605778649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03891567021033987</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02729980656745969</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002299841509216805</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.021715268561688</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0002869853049123855</v>
+      </c>
+      <c r="G82">
+        <v>7.361057594514083e-05</v>
+      </c>
+      <c r="H82">
+        <v>-0.01602818829498138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03724594849838336</v>
+        <v>-0.03092435753677487</v>
       </c>
       <c r="C83">
-        <v>-0.004729361664083862</v>
+        <v>-0.01859983829027161</v>
       </c>
       <c r="D83">
-        <v>0.01065408228783272</v>
+        <v>0.004524624082379325</v>
       </c>
       <c r="E83">
-        <v>-0.03779286782253516</v>
+        <v>-0.02245581901006911</v>
       </c>
       <c r="F83">
-        <v>0.014265965631694</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02252858636392978</v>
+      </c>
+      <c r="G83">
+        <v>-0.02595934246092885</v>
+      </c>
+      <c r="H83">
+        <v>-0.01274028698735652</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2380740568670191</v>
+        <v>-0.2487341560671166</v>
       </c>
       <c r="C85">
-        <v>0.001720780999900821</v>
+        <v>-0.145467328595564</v>
       </c>
       <c r="D85">
-        <v>0.1733638667624706</v>
+        <v>-0.02229157867760238</v>
       </c>
       <c r="E85">
-        <v>0.1813849912038111</v>
+        <v>0.1052136084803267</v>
       </c>
       <c r="F85">
-        <v>0.03945239657951806</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2101276853814464</v>
+      </c>
+      <c r="G85">
+        <v>0.06787354528293117</v>
+      </c>
+      <c r="H85">
+        <v>-0.00139186018577806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01406152522980748</v>
+        <v>-0.009620852470454931</v>
       </c>
       <c r="C86">
-        <v>0.00894314376075989</v>
+        <v>-0.02361147443847511</v>
       </c>
       <c r="D86">
-        <v>0.02296191232942316</v>
+        <v>0.009369063841683819</v>
       </c>
       <c r="E86">
-        <v>-0.05590521939479662</v>
+        <v>-0.01598338101060506</v>
       </c>
       <c r="F86">
-        <v>0.02351415281052493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02196387804589241</v>
+      </c>
+      <c r="G86">
+        <v>-0.04609305690794133</v>
+      </c>
+      <c r="H86">
+        <v>0.02836618119411267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02920918356875171</v>
+        <v>-0.01853702447117044</v>
       </c>
       <c r="C87">
-        <v>0.007467306011001879</v>
+        <v>-0.02598162609058901</v>
       </c>
       <c r="D87">
-        <v>0.02766009823879313</v>
+        <v>0.0108340117939556</v>
       </c>
       <c r="E87">
-        <v>-0.1039030839936604</v>
+        <v>-0.07648992543855941</v>
       </c>
       <c r="F87">
-        <v>-0.03367313201434809</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06324106542431913</v>
+      </c>
+      <c r="G87">
+        <v>-0.03721027125297624</v>
+      </c>
+      <c r="H87">
+        <v>0.006485116894157356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04927177376988945</v>
+        <v>-0.08408561491661634</v>
       </c>
       <c r="C88">
-        <v>-0.007424393595450655</v>
+        <v>-0.05166193179666699</v>
       </c>
       <c r="D88">
-        <v>0.004829277564562937</v>
+        <v>0.02045372571182347</v>
       </c>
       <c r="E88">
-        <v>0.0008404823426656012</v>
+        <v>0.02070341084041685</v>
       </c>
       <c r="F88">
-        <v>-0.02280063413281293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.009100607728288091</v>
+      </c>
+      <c r="G88">
+        <v>-0.02088825181402926</v>
+      </c>
+      <c r="H88">
+        <v>-0.02272003693507189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1990553717353903</v>
+        <v>-0.2143727711716586</v>
       </c>
       <c r="C89">
-        <v>-0.1152067170530561</v>
+        <v>0.3779047858791942</v>
       </c>
       <c r="D89">
-        <v>-0.3671020034457614</v>
+        <v>-0.01212736439739063</v>
       </c>
       <c r="E89">
-        <v>0.01246131719887187</v>
+        <v>0.007503558362226165</v>
       </c>
       <c r="F89">
-        <v>0.00853103115177053</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02693895911291095</v>
+      </c>
+      <c r="G89">
+        <v>-0.0245822419548636</v>
+      </c>
+      <c r="H89">
+        <v>-0.005471083571717624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1215736664893994</v>
+        <v>-0.1763138140042257</v>
       </c>
       <c r="C90">
-        <v>-0.1014733486267254</v>
+        <v>0.3409588243122976</v>
       </c>
       <c r="D90">
-        <v>-0.3161942723532055</v>
+        <v>-0.01392666698900169</v>
       </c>
       <c r="E90">
-        <v>0.0542050043238269</v>
+        <v>-0.005304446809444988</v>
       </c>
       <c r="F90">
-        <v>0.06327221806671965</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04331881100658604</v>
+      </c>
+      <c r="G90">
+        <v>-0.004198853556235202</v>
+      </c>
+      <c r="H90">
+        <v>0.007458623726397703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2593851508600195</v>
+        <v>-0.216222853315338</v>
       </c>
       <c r="C91">
-        <v>0.008885704515160173</v>
+        <v>-0.1289858941657506</v>
       </c>
       <c r="D91">
-        <v>0.179904866254562</v>
+        <v>-0.02734832321166544</v>
       </c>
       <c r="E91">
-        <v>0.2399663792150038</v>
+        <v>0.08587766209917513</v>
       </c>
       <c r="F91">
-        <v>0.04237903394824904</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1987079874548396</v>
+      </c>
+      <c r="G91">
+        <v>0.02215294529229718</v>
+      </c>
+      <c r="H91">
+        <v>-0.002388564101324992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2721321303335291</v>
+        <v>-0.2118135615700487</v>
       </c>
       <c r="C92">
-        <v>-0.1005239417552076</v>
+        <v>0.2740574011354752</v>
       </c>
       <c r="D92">
-        <v>-0.2964225077588006</v>
+        <v>-0.05786514537926686</v>
       </c>
       <c r="E92">
-        <v>0.1422311032793735</v>
+        <v>-0.0007342073688465948</v>
       </c>
       <c r="F92">
-        <v>0.2354017596408536</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1393461813284368</v>
+      </c>
+      <c r="G92">
+        <v>-0.0501118931185821</v>
+      </c>
+      <c r="H92">
+        <v>-0.01405425991934832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1788937206727658</v>
+        <v>-0.2016137307823228</v>
       </c>
       <c r="C93">
-        <v>-0.1303210811510936</v>
+        <v>0.3386383412900631</v>
       </c>
       <c r="D93">
-        <v>-0.3634127973469794</v>
+        <v>-0.02078688074346744</v>
       </c>
       <c r="E93">
-        <v>0.02066174302282612</v>
+        <v>-0.01751560506733534</v>
       </c>
       <c r="F93">
-        <v>-5.736177649211444e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0142271239510149</v>
+      </c>
+      <c r="G93">
+        <v>0.001163745936592211</v>
+      </c>
+      <c r="H93">
+        <v>0.03726881311836117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3108232997186261</v>
+        <v>-0.288706985425267</v>
       </c>
       <c r="C94">
-        <v>-0.02944668301927066</v>
+        <v>-0.148553818744117</v>
       </c>
       <c r="D94">
-        <v>0.1525146298364577</v>
+        <v>-0.0157826742625645</v>
       </c>
       <c r="E94">
-        <v>0.2371059281708456</v>
+        <v>0.09719923680877136</v>
       </c>
       <c r="F94">
-        <v>0.1250912061622155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3624815099028881</v>
+      </c>
+      <c r="G94">
+        <v>0.1322279732524324</v>
+      </c>
+      <c r="H94">
+        <v>-0.2086837477052135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08383643333349158</v>
+        <v>-0.07691777471572021</v>
       </c>
       <c r="C95">
-        <v>-0.07325423064131291</v>
+        <v>-0.08097959173580586</v>
       </c>
       <c r="D95">
-        <v>0.05206268091737604</v>
+        <v>-0.007520149472784485</v>
       </c>
       <c r="E95">
-        <v>-0.01927958728034495</v>
+        <v>-0.07702140710465276</v>
       </c>
       <c r="F95">
-        <v>-0.08102852514778926</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1469952102951492</v>
+      </c>
+      <c r="G95">
+        <v>0.06120122904922969</v>
+      </c>
+      <c r="H95">
+        <v>0.02819747546920386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2193676498258717</v>
+        <v>-0.2170689025393639</v>
       </c>
       <c r="C98">
-        <v>-0.06530530704604827</v>
+        <v>-0.0416278029581638</v>
       </c>
       <c r="D98">
-        <v>0.004636677237735756</v>
+        <v>-0.02072023904605707</v>
       </c>
       <c r="E98">
-        <v>-0.2387259741936512</v>
+        <v>-0.06699377344565131</v>
       </c>
       <c r="F98">
-        <v>-0.3567821167677449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.258325642449212</v>
+      </c>
+      <c r="G98">
+        <v>0.02767772839393179</v>
+      </c>
+      <c r="H98">
+        <v>0.04467517666472359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02884387364488891</v>
+        <v>-0.01412319692001144</v>
       </c>
       <c r="C101">
-        <v>0.002750505146134169</v>
+        <v>-0.01979182711691087</v>
       </c>
       <c r="D101">
-        <v>0.021112436698374</v>
+        <v>0.008084492441257802</v>
       </c>
       <c r="E101">
-        <v>-0.1200362873207066</v>
+        <v>-0.03437704674687417</v>
       </c>
       <c r="F101">
-        <v>0.1714999229736928</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02411573710772437</v>
+      </c>
+      <c r="G101">
+        <v>-0.03059885054482776</v>
+      </c>
+      <c r="H101">
+        <v>-0.0244873602445068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1286086244571249</v>
+        <v>-0.1247600714267706</v>
       </c>
       <c r="C102">
-        <v>0.006327720437228534</v>
+        <v>-0.07645030962024117</v>
       </c>
       <c r="D102">
-        <v>0.07785605081779322</v>
+        <v>-0.001314431998876942</v>
       </c>
       <c r="E102">
-        <v>0.1050605149786512</v>
+        <v>0.04635463144278786</v>
       </c>
       <c r="F102">
-        <v>0.0402979885151912</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06136300264603661</v>
+      </c>
+      <c r="G102">
+        <v>0.01860696483916238</v>
+      </c>
+      <c r="H102">
+        <v>0.01060333181097099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03153205938955899</v>
+        <v>-0.006360867893874037</v>
       </c>
       <c r="C103">
-        <v>0.01813651300818182</v>
+        <v>-0.006156320338106916</v>
       </c>
       <c r="D103">
-        <v>0.02279447273296882</v>
+        <v>0.0003209028469253573</v>
       </c>
       <c r="E103">
-        <v>0.01199799659437364</v>
+        <v>0.001468918963911452</v>
       </c>
       <c r="F103">
-        <v>0.001325785261688238</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01078910526641229</v>
+      </c>
+      <c r="G103">
+        <v>-0.01406096997769394</v>
+      </c>
+      <c r="H103">
+        <v>0.007421926776158987</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.04810207644114099</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04885041998413465</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9853679853879632</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04372053791799811</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03530519047393835</v>
+      </c>
+      <c r="G104">
+        <v>-0.0001087195759869142</v>
+      </c>
+      <c r="H104">
+        <v>-0.09865330330107588</v>
       </c>
     </row>
   </sheetData>
